--- a/狗只在手，天气我有.xlsx
+++ b/狗只在手，天气我有.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
   <si>
     <t>城市</t>
   </si>
@@ -31,76 +31,79 @@
     <t>最低温度</t>
   </si>
   <si>
+    <t>顺义</t>
+  </si>
+  <si>
+    <t>2日（今天）</t>
+  </si>
+  <si>
+    <t>阴有阵雨或雷阵雨转阴有大雨</t>
+  </si>
+  <si>
+    <t>29℃</t>
+  </si>
+  <si>
+    <t>24℃</t>
+  </si>
+  <si>
+    <t>3日（明天）</t>
+  </si>
+  <si>
+    <t>阴转晴</t>
+  </si>
+  <si>
+    <t>33℃</t>
+  </si>
+  <si>
+    <t>4日（后天）</t>
+  </si>
+  <si>
+    <t>多云</t>
+  </si>
+  <si>
+    <t>34℃</t>
+  </si>
+  <si>
+    <t>25℃</t>
+  </si>
+  <si>
+    <t>5日（周六）</t>
+  </si>
+  <si>
+    <t>阴转雷阵雨</t>
+  </si>
+  <si>
+    <t>6日（周日）</t>
+  </si>
+  <si>
+    <t>32℃</t>
+  </si>
+  <si>
+    <t>7日（周一）</t>
+  </si>
+  <si>
+    <t>31℃</t>
+  </si>
+  <si>
+    <t>8日（周二）</t>
+  </si>
+  <si>
+    <t>23℃</t>
+  </si>
+  <si>
     <t>海淀</t>
   </si>
   <si>
-    <t>2日（今天）</t>
-  </si>
-  <si>
-    <t>雷阵雨转中雨</t>
+    <t>阴有阵雨或雷阵雨转阴有中雨</t>
   </si>
   <si>
     <t>30℃</t>
   </si>
   <si>
-    <t>24℃</t>
-  </si>
-  <si>
-    <t>3日（明天）</t>
-  </si>
-  <si>
-    <t>阴转晴</t>
-  </si>
-  <si>
-    <t>34℃</t>
-  </si>
-  <si>
-    <t>23℃</t>
-  </si>
-  <si>
-    <t>4日（后天）</t>
-  </si>
-  <si>
-    <t>多云</t>
-  </si>
-  <si>
     <t>26℃</t>
   </si>
   <si>
-    <t>5日（周六）</t>
-  </si>
-  <si>
-    <t>阴转雷阵雨</t>
-  </si>
-  <si>
-    <t>25℃</t>
-  </si>
-  <si>
-    <t>6日（周日）</t>
-  </si>
-  <si>
-    <t>33℃</t>
-  </si>
-  <si>
-    <t>7日（周一）</t>
-  </si>
-  <si>
-    <t>8日（周二）</t>
-  </si>
-  <si>
-    <t>朝阳</t>
-  </si>
-  <si>
-    <t>32℃</t>
-  </si>
-  <si>
-    <t>顺义</t>
-  </si>
-  <si>
-    <t>雷阵雨转大雨</t>
-  </si>
-  <si>
-    <t>29℃</t>
+    <t>昌平</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -501,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -527,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -535,16 +538,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -552,16 +555,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -575,24 +578,24 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -600,7 +603,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -609,32 +612,32 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -643,49 +646,49 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -694,24 +697,24 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -719,7 +722,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -728,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -736,24 +739,24 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -762,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -770,41 +773,41 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -813,10 +816,10 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
